--- a/Calc1.xlsx
+++ b/Calc1.xlsx
@@ -4,22 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>intA</t>
   </si>
   <si>
     <t>intB</t>
+  </si>
+  <si>
+    <t>intC</t>
   </si>
 </sst>
 </file>
@@ -361,420 +364,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-901</v>
+        <f ca="1">-901+A2:A40</f>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>-997</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>-997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>894</v>
       </c>
       <c r="B3">
         <v>878</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>976</v>
       </c>
       <c r="B4">
         <v>-579</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>-579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>343</v>
       </c>
       <c r="B5">
         <v>-255</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>-255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-546</v>
       </c>
       <c r="B6">
         <v>336</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-430</v>
       </c>
       <c r="B7">
         <v>310</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>407</v>
       </c>
       <c r="B8">
         <v>757</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>932</v>
       </c>
       <c r="B9">
         <v>458</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10">
         <v>801</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-23</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-89</v>
       </c>
       <c r="B12">
         <v>160</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>107</v>
       </c>
       <c r="B13">
         <v>-489</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>-489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-649</v>
       </c>
       <c r="B14">
         <v>287</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
       <c r="B15">
         <v>-321</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>-321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>779</v>
       </c>
       <c r="B16">
         <v>-138</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>98</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>623</v>
       </c>
       <c r="B18">
         <v>309</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>228</v>
       </c>
       <c r="B19">
         <v>846</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>101</v>
       </c>
       <c r="B20">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>300</v>
       </c>
       <c r="B21">
         <v>-900</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>333</v>
       </c>
       <c r="B22">
         <v>222</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>205</v>
       </c>
       <c r="B23">
         <v>675</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>432</v>
       </c>
       <c r="B24">
         <v>888</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>339</v>
       </c>
       <c r="B25">
         <v>785</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>232</v>
       </c>
       <c r="B26">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>-997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-889</v>
       </c>
       <c r="B28">
         <v>333</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>-579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>224</v>
       </c>
       <c r="B30">
         <v>-607</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>-255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>338</v>
       </c>
       <c r="B31">
         <v>-160</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>345</v>
       </c>
       <c r="B32">
         <v>522</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <v>289</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>111</v>
       </c>
       <c r="B34">
         <v>-168</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-87</v>
       </c>
       <c r="B35">
         <v>451</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>23</v>
       </c>
       <c r="B36">
         <v>983</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>335</v>
       </c>
       <c r="B37">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>570</v>
       </c>
       <c r="B38">
         <v>177</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>-489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>140</v>
       </c>
       <c r="B39">
         <v>206</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>102</v>
       </c>
       <c r="B40">
         <v>762</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>215</v>
-      </c>
-      <c r="B41">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>-635</v>
-      </c>
-      <c r="B42">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>141</v>
-      </c>
-      <c r="B43">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>70</v>
-      </c>
-      <c r="B44">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>-958</v>
-      </c>
-      <c r="B45">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>700</v>
-      </c>
-      <c r="B46">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>145</v>
-      </c>
-      <c r="B47">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>-6</v>
-      </c>
-      <c r="B48">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>79</v>
-      </c>
-      <c r="B49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>200</v>
-      </c>
-      <c r="B50">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>-161</v>
-      </c>
-      <c r="B51">
-        <v>-199</v>
+      <c r="C40">
+        <v>-321</v>
       </c>
     </row>
   </sheetData>

--- a/Calc1.xlsx
+++ b/Calc1.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_EFB09DCFD3B40E977932D1C21BF3284665D8FBF3" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2AD3F9B0-68A0-4648-A560-70E7CD1B1FB8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>intA</t>
   </si>
@@ -24,11 +36,14 @@
   <si>
     <t>intC</t>
   </si>
+  <si>
+    <t>intD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,6 +168,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -188,6 +220,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -363,16 +412,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:C51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,8 +431,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">-901+A2:A40</f>
         <v>0</v>
@@ -394,8 +446,12 @@
       <c r="C2">
         <v>-997</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f ca="1">-901+D2:D40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>894</v>
       </c>
@@ -405,8 +461,11 @@
       <c r="C3">
         <v>878</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>976</v>
       </c>
@@ -416,8 +475,11 @@
       <c r="C4">
         <v>-579</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>343</v>
       </c>
@@ -427,8 +489,11 @@
       <c r="C5">
         <v>-255</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-546</v>
       </c>
@@ -438,8 +503,11 @@
       <c r="C6">
         <v>336</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>-546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-430</v>
       </c>
@@ -449,8 +517,11 @@
       <c r="C7">
         <v>310</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>-430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>407</v>
       </c>
@@ -460,8 +531,11 @@
       <c r="C8">
         <v>757</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>932</v>
       </c>
@@ -471,8 +545,11 @@
       <c r="C9">
         <v>458</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -482,8 +559,11 @@
       <c r="C10">
         <v>801</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-23</v>
       </c>
@@ -493,8 +573,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-89</v>
       </c>
@@ -504,8 +587,11 @@
       <c r="C12">
         <v>160</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>107</v>
       </c>
@@ -515,8 +601,11 @@
       <c r="C13">
         <v>-489</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-649</v>
       </c>
@@ -526,8 +615,11 @@
       <c r="C14">
         <v>287</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -537,8 +629,11 @@
       <c r="C15">
         <v>-321</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>-321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>779</v>
       </c>
@@ -548,8 +643,11 @@
       <c r="C16">
         <v>-138</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>98</v>
       </c>
@@ -559,8 +657,11 @@
       <c r="C17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>623</v>
       </c>
@@ -570,8 +671,11 @@
       <c r="C18">
         <v>309</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>228</v>
       </c>
@@ -581,8 +685,11 @@
       <c r="C19">
         <v>846</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>101</v>
       </c>
@@ -592,8 +699,11 @@
       <c r="C20">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>300</v>
       </c>
@@ -603,8 +713,11 @@
       <c r="C21">
         <v>-900</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>333</v>
       </c>
@@ -614,8 +727,11 @@
       <c r="C22">
         <v>222</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>205</v>
       </c>
@@ -625,8 +741,11 @@
       <c r="C23">
         <v>675</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>432</v>
       </c>
@@ -636,8 +755,11 @@
       <c r="C24">
         <v>888</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>339</v>
       </c>
@@ -647,8 +769,11 @@
       <c r="C25">
         <v>785</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>232</v>
       </c>
@@ -658,8 +783,11 @@
       <c r="C26">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -669,8 +797,11 @@
       <c r="C27">
         <v>-997</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-889</v>
       </c>
@@ -680,8 +811,11 @@
       <c r="C28">
         <v>878</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>-889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -691,8 +825,11 @@
       <c r="C29">
         <v>-579</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>224</v>
       </c>
@@ -702,8 +839,11 @@
       <c r="C30">
         <v>-255</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>338</v>
       </c>
@@ -713,8 +853,11 @@
       <c r="C31">
         <v>336</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>345</v>
       </c>
@@ -724,8 +867,11 @@
       <c r="C32">
         <v>310</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -735,8 +881,11 @@
       <c r="C33">
         <v>757</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>111</v>
       </c>
@@ -746,8 +895,11 @@
       <c r="C34">
         <v>458</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-87</v>
       </c>
@@ -757,8 +909,11 @@
       <c r="C35">
         <v>801</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>-87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>23</v>
       </c>
@@ -768,8 +923,11 @@
       <c r="C36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>335</v>
       </c>
@@ -779,8 +937,11 @@
       <c r="C37">
         <v>160</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>570</v>
       </c>
@@ -790,8 +951,11 @@
       <c r="C38">
         <v>-489</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>140</v>
       </c>
@@ -801,8 +965,11 @@
       <c r="C39">
         <v>287</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>102</v>
       </c>
@@ -811,6 +978,9 @@
       </c>
       <c r="C40">
         <v>-321</v>
+      </c>
+      <c r="D40">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Calc1.xlsx
+++ b/Calc1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,15 +364,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:C51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,7 +383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <f ca="1">-901+A2:A40</f>
         <v>0</v>
@@ -395,7 +395,7 @@
         <v>-997</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>894</v>
       </c>
@@ -406,7 +406,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>976</v>
       </c>
@@ -417,7 +417,7 @@
         <v>-579</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>343</v>
       </c>
@@ -428,7 +428,7 @@
         <v>-255</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-546</v>
       </c>
@@ -439,7 +439,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-430</v>
       </c>
@@ -450,7 +450,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>407</v>
       </c>
@@ -461,7 +461,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>932</v>
       </c>
@@ -472,7 +472,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-23</v>
       </c>
@@ -494,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-89</v>
       </c>
@@ -505,7 +505,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>107</v>
       </c>
@@ -516,7 +516,7 @@
         <v>-489</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-649</v>
       </c>
@@ -527,7 +527,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>57</v>
       </c>
@@ -538,7 +538,7 @@
         <v>-321</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>779</v>
       </c>
@@ -549,7 +549,7 @@
         <v>-138</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>98</v>
       </c>
@@ -560,7 +560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>623</v>
       </c>
@@ -571,7 +571,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>228</v>
       </c>
@@ -582,7 +582,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>101</v>
       </c>
@@ -593,7 +593,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>300</v>
       </c>
@@ -604,7 +604,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>333</v>
       </c>
@@ -615,7 +615,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>205</v>
       </c>
@@ -626,7 +626,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>432</v>
       </c>
@@ -637,7 +637,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>339</v>
       </c>
@@ -648,7 +648,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>232</v>
       </c>
@@ -659,7 +659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -670,7 +670,7 @@
         <v>-997</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-889</v>
       </c>
@@ -681,7 +681,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -692,7 +692,7 @@
         <v>-579</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>224</v>
       </c>
@@ -703,7 +703,7 @@
         <v>-255</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>338</v>
       </c>
@@ -714,7 +714,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>345</v>
       </c>
@@ -725,7 +725,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -736,7 +736,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>111</v>
       </c>
@@ -747,7 +747,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-87</v>
       </c>
@@ -758,7 +758,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>23</v>
       </c>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>335</v>
       </c>
@@ -780,7 +780,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>570</v>
       </c>
@@ -791,7 +791,7 @@
         <v>-489</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>140</v>
       </c>
@@ -802,7 +802,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>102</v>
       </c>
@@ -811,6 +811,39 @@
       </c>
       <c r="C40">
         <v>-321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>101</v>
+      </c>
+      <c r="B41">
+        <v>222</v>
+      </c>
+      <c r="C41">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>444</v>
+      </c>
+      <c r="B42">
+        <v>555</v>
+      </c>
+      <c r="C42">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>777</v>
+      </c>
+      <c r="B43">
+        <v>888</v>
+      </c>
+      <c r="C43">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
